--- a/project/zvalue_services.xlsx
+++ b/project/zvalue_services.xlsx
@@ -493,25 +493,25 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.771683924305715</v>
+        <v>0.7220986618725809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9143563846777327</v>
+        <v>0.2711360250092141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7768037029457537</v>
+        <v>0.1511426543293937</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49168403805338</v>
+        <v>0.6647921135837076</v>
       </c>
       <c r="H2" t="n">
-        <v>1.587291507794778</v>
+        <v>1.30118654991089</v>
       </c>
       <c r="I2" t="n">
-        <v>1.094905527300431</v>
+        <v>1.322467867999731</v>
       </c>
       <c r="J2" t="n">
-        <v>1.735439550297253</v>
+        <v>0.7851366482813779</v>
       </c>
     </row>
     <row r="3">
@@ -527,25 +527,25 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>1.380903024641639</v>
+        <v>0.3131540727290293</v>
       </c>
       <c r="E3" t="n">
-        <v>1.763294076011706</v>
+        <v>0.9988480355510618</v>
       </c>
       <c r="F3" t="n">
-        <v>1.709334684881192</v>
+        <v>0.9441188473048882</v>
       </c>
       <c r="G3" t="n">
-        <v>1.878619360095376</v>
+        <v>1.014938744993538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8015275803862696</v>
+        <v>0.6936776275910821</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8735712788375952</v>
+        <v>1.140390173901422</v>
       </c>
       <c r="J3" t="n">
-        <v>2.033018649712755</v>
+        <v>1.05782773395549</v>
       </c>
     </row>
     <row r="4">
@@ -561,25 +561,25 @@
         <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1.352852123416986</v>
+        <v>0.283799351742709</v>
       </c>
       <c r="E4" t="n">
-        <v>1.522506662641936</v>
+        <v>0.792444321255906</v>
       </c>
       <c r="F4" t="n">
-        <v>1.639739801303193</v>
+        <v>0.8849389520528126</v>
       </c>
       <c r="G4" t="n">
-        <v>1.593015330004504</v>
+        <v>0.7564891195480308</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1727765605907655</v>
+        <v>0.2075623439546717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3032328919630091</v>
+        <v>0.6712088381656194</v>
       </c>
       <c r="J4" t="n">
-        <v>1.097956680819571</v>
+        <v>0.2009696280909068</v>
       </c>
     </row>
     <row r="5">
@@ -595,25 +595,25 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6447438210153262</v>
+        <v>-0.4572221747538822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7040823657013862</v>
+        <v>0.09088848661385072</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6418061876535965</v>
+        <v>0.03634773833062727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7031147792673855</v>
+        <v>-0.04880226218975445</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2632052714059223</v>
+        <v>-0.1295145358415989</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6750227250637723</v>
+        <v>-0.1335402154669987</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1532515216167276</v>
+        <v>-0.6647251603231847</v>
       </c>
     </row>
     <row r="6">
@@ -629,25 +629,25 @@
         <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1283204953999502</v>
+        <v>-0.9976491119441827</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4153730966971136</v>
+        <v>-0.8687121926468192</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3545951486755415</v>
+        <v>-0.8109405058820217</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1288503895911814</v>
+        <v>-0.8016665904934903</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4977629724781327</v>
+        <v>-0.3108614916253155</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.576243881624883</v>
+        <v>-0.8749178883706569</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4943871330043499</v>
+        <v>-1.258198587052506</v>
       </c>
     </row>
     <row r="7">
@@ -663,25 +663,25 @@
         <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4649036727894953</v>
+        <v>-1.618446632853723</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.179114726092472</v>
+        <v>-1.523393875808365</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.145903310392719</v>
+        <v>-1.483828105012071</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8971805032210874</v>
+        <v>-1.496946100460388</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.561883858594773</v>
+        <v>-1.133580517268028</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.952541933425244</v>
+        <v>-1.184474507110571</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4637489126295851</v>
+        <v>-1.230122792772842</v>
       </c>
     </row>
     <row r="8">
@@ -697,25 +697,25 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.024089966077098</v>
+        <v>1.015966665373821</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5415949936686709</v>
+        <v>0.4402505558536367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3298396522584572</v>
+        <v>0.214725398495993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75827400173756</v>
+        <v>0.666680864215121</v>
       </c>
       <c r="H8" t="n">
-        <v>1.411307664239668</v>
+        <v>1.356708894057534</v>
       </c>
       <c r="I8" t="n">
-        <v>1.151581413025417</v>
+        <v>1.269368690213499</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9384293372509533</v>
+        <v>0.8398924752026212</v>
       </c>
     </row>
     <row r="9">
@@ -731,25 +731,25 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8659206493320475</v>
+        <v>0.813663092827085</v>
       </c>
       <c r="E9" t="n">
-        <v>1.330201122496911</v>
+        <v>1.266467411123673</v>
       </c>
       <c r="F9" t="n">
-        <v>1.289235361824604</v>
+        <v>1.211839428631721</v>
       </c>
       <c r="G9" t="n">
-        <v>1.251664132855379</v>
+        <v>1.212378672937181</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8806459998683235</v>
+        <v>0.8552579379272175</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9780487997595744</v>
+        <v>1.09489119935417</v>
       </c>
       <c r="J9" t="n">
-        <v>1.311965023904371</v>
+        <v>1.258253088658106</v>
       </c>
     </row>
     <row r="10">
@@ -765,25 +765,25 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8579743208675135</v>
+        <v>0.8034994866986206</v>
       </c>
       <c r="E10" t="n">
-        <v>1.066089883384037</v>
+        <v>0.9897600036558331</v>
       </c>
       <c r="F10" t="n">
-        <v>1.185617931713421</v>
+        <v>1.104148314005837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8723499872784193</v>
+        <v>0.7928508287347213</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2756742177514035</v>
+        <v>0.2835873256666261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3845926173919019</v>
+        <v>0.4982036736736616</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5597605828874848</v>
+        <v>0.4157828170565867</v>
       </c>
     </row>
     <row r="11">
@@ -799,25 +799,25 @@
         <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0754828372834967</v>
+        <v>-0.197331937967667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1915670666285103</v>
+        <v>0.07352886480423944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1320070913667281</v>
+        <v>0.009115116819803006</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01076194010710921</v>
+        <v>-0.183885861435356</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1348673268759167</v>
+        <v>-0.1043556216131047</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5048459208211199</v>
+        <v>-0.3960778190118645</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.3861869068498994</v>
+        <v>-0.6436800033469678</v>
       </c>
     </row>
     <row r="12">
@@ -833,25 +833,25 @@
         <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.442035369401044</v>
+        <v>-0.8592541377013827</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8213598451606916</v>
+        <v>-0.9877072289608158</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8195300178356568</v>
+        <v>-0.9798313547143956</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7210933094091211</v>
+        <v>-0.9695243394820237</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4464452793997176</v>
+        <v>-0.3987825091993399</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.191295299898077</v>
+        <v>-1.086264885346254</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.8844753611638272</v>
+        <v>-1.201763931798983</v>
       </c>
     </row>
     <row r="13">
@@ -867,25 +867,25 @@
         <v>70</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.067609173409385</v>
+        <v>-1.659382873456949</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.363170804076145</v>
+        <v>-1.555358595418137</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.395382018239369</v>
+        <v>-1.578322783390811</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.281047903878667</v>
+        <v>-1.588843567642495</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.734283331764508</v>
+        <v>-1.615730455617082</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.391898105950985</v>
+        <v>-1.287959965024637</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.8735862806332815</v>
+        <v>-1.189568142819516</v>
       </c>
     </row>
     <row r="14">
@@ -901,25 +901,25 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.134122979205353</v>
+        <v>1.241408902705004</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09813220072963866</v>
+        <v>0.5459052281597351</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2641968783132581</v>
+        <v>0.2983835714680038</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04944250511237359</v>
+        <v>0.8376702712525763</v>
       </c>
       <c r="H14" t="n">
-        <v>1.107947536501848</v>
+        <v>1.365065350873037</v>
       </c>
       <c r="I14" t="n">
-        <v>1.317060084635603</v>
+        <v>1.288788402346102</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1196552018889438</v>
+        <v>1.230966440717375</v>
       </c>
     </row>
     <row r="15">
@@ -935,25 +935,25 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08383803389002585</v>
+        <v>1.330461880991993</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3392137523889908</v>
+        <v>1.180341738463516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3614529928407071</v>
+        <v>1.198725690565045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2212595610204699</v>
+        <v>1.252225574027797</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7073722900192287</v>
+        <v>0.8409534631806793</v>
       </c>
       <c r="I15" t="n">
-        <v>1.083197482486191</v>
+        <v>0.9632155153662525</v>
       </c>
       <c r="J15" t="n">
-        <v>0.497110103208635</v>
+        <v>1.816312789299892</v>
       </c>
     </row>
     <row r="16">
@@ -969,25 +969,25 @@
         <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1375764366746138</v>
+        <v>1.235292943522855</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1170127564500933</v>
+        <v>0.8580055571309766</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3263410750536873</v>
+        <v>1.148197847559788</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05707252284941206</v>
+        <v>0.8259856012449009</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2555667741261302</v>
+        <v>0.2498119888039645</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6406035590943673</v>
+        <v>0.3470563686107026</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1120803791958938</v>
+        <v>0.8715974783581578</v>
       </c>
     </row>
     <row r="17">
@@ -1003,25 +1003,25 @@
         <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7889330017191719</v>
+        <v>0.08176196759634344</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5249586835373061</v>
+        <v>-0.07327119802359043</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4336344647687392</v>
+        <v>0.05455423068568239</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.7242599583308856</v>
+        <v>-0.195750557902529</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04962925063834487</v>
+        <v>-0.1495059072968697</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04252381762807789</v>
+        <v>-0.4855630681171003</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.9799354698881296</v>
+        <v>-0.474247566067945</v>
       </c>
     </row>
     <row r="18">
@@ -1037,25 +1037,25 @@
         <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.239697226037004</v>
+        <v>-0.7165265942983778</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.228317951011819</v>
+        <v>-1.093600289819971</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.170059838750728</v>
+        <v>-1.005199494740419</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.242193460524045</v>
+        <v>-0.9889180533945966</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3294724117013884</v>
+        <v>-0.5156521649361624</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4310181223109419</v>
+        <v>-1.144806637097343</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.30855147454908</v>
+        <v>-0.9838559397876598</v>
       </c>
     </row>
     <row r="19">
@@ -1071,25 +1071,25 @@
         <v>70</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.736996307426657</v>
+        <v>-1.5972268519883</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.581629334533091</v>
+        <v>-1.60613193579369</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.590830246987917</v>
+        <v>-1.610709602665256</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.656040140992371</v>
+        <v>-1.622686160062371</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.462832842823318</v>
+        <v>-1.998538789127287</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5606269241399207</v>
+        <v>-1.32524212101666</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.178711915101009</v>
+        <v>-0.7825044359158867</v>
       </c>
     </row>
     <row r="20">
@@ -1105,25 +1105,25 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633437102081306</v>
+        <v>1.125487772590547</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9578319755431134</v>
+        <v>0.563974434212164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6625387602300941</v>
+        <v>0.2819147132474548</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2224348876194</v>
+        <v>0.7626511018107694</v>
       </c>
       <c r="H20" t="n">
-        <v>1.534137917689707</v>
+        <v>1.355800169095848</v>
       </c>
       <c r="I20" t="n">
-        <v>1.131670279487823</v>
+        <v>1.306198661640273</v>
       </c>
       <c r="J20" t="n">
-        <v>1.542205536724145</v>
+        <v>1.016690350799955</v>
       </c>
     </row>
     <row r="21">
@@ -1139,25 +1139,25 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>1.507643949110572</v>
+        <v>0.9806836835646988</v>
       </c>
       <c r="E21" t="n">
-        <v>1.723808779203434</v>
+        <v>1.286231883800254</v>
       </c>
       <c r="F21" t="n">
-        <v>1.631950492261028</v>
+        <v>1.18868615949564</v>
       </c>
       <c r="G21" t="n">
-        <v>1.648656401798744</v>
+        <v>1.186918468512706</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9149160776992241</v>
+        <v>0.8291775315268319</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8490365862013847</v>
+        <v>1.050443302241402</v>
       </c>
       <c r="J21" t="n">
-        <v>1.919119365719337</v>
+        <v>1.39662007563541</v>
       </c>
     </row>
     <row r="22">
@@ -1173,25 +1173,25 @@
         <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>1.43903059823213</v>
+        <v>0.9017008968682313</v>
       </c>
       <c r="E22" t="n">
-        <v>1.350153681341353</v>
+        <v>0.9339037496872875</v>
       </c>
       <c r="F22" t="n">
-        <v>1.529737163216066</v>
+        <v>1.093077528878217</v>
       </c>
       <c r="G22" t="n">
-        <v>1.189753125666952</v>
+        <v>0.7301191797433386</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1753118469609087</v>
+        <v>0.2001746353198748</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1124737923781252</v>
+        <v>0.3839272904254009</v>
       </c>
       <c r="J22" t="n">
-        <v>1.061245635539572</v>
+        <v>0.5318820236523886</v>
       </c>
     </row>
     <row r="23">
@@ -1207,25 +1207,25 @@
         <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5794488761967328</v>
+        <v>-0.08778815927748262</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4079322983298443</v>
+        <v>0.04546116266732757</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4536345629302622</v>
+        <v>0.08650923706652476</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2759826140719179</v>
+        <v>-0.1794618616331383</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2807774286610524</v>
+        <v>-0.1877104840077487</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8003062619295287</v>
+        <v>-0.4420478016701604</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0191476477768177</v>
+        <v>-0.5571560833832286</v>
       </c>
     </row>
     <row r="24">
@@ -1241,25 +1241,25 @@
         <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02597573985373754</v>
+        <v>-0.7847097160605296</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6835138179873272</v>
+        <v>-0.9836889167698653</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6195392733998066</v>
+        <v>-0.9173195381495736</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.4863899557745104</v>
+        <v>-0.938339093058937</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.5679641778307175</v>
+        <v>-0.4319509703008758</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.535601305677361</v>
+        <v>-1.107416625858251</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.4772009673288108</v>
+        <v>-1.018874540679673</v>
       </c>
     </row>
     <row r="25">
@@ -1275,25 +1275,25 @@
         <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7272977089324244</v>
+        <v>-1.592021453209528</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.285106980019365</v>
+        <v>-1.550945184613166</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.295547691235927</v>
+        <v>-1.549646454013271</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.135729810176222</v>
+        <v>-1.584701843311173</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.082404377485545</v>
+        <v>-1.719919903042379</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.745898671130595</v>
+        <v>-1.297714808841052</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5311088573433853</v>
+        <v>-1.073213777513454</v>
       </c>
     </row>
     <row r="26">
@@ -1309,25 +1309,25 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>1.942035601669458</v>
+        <v>1.176728343094852</v>
       </c>
       <c r="E26" t="n">
-        <v>1.164318172416871</v>
+        <v>0.6155331170677995</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8636919744568499</v>
+        <v>0.3417146662591319</v>
       </c>
       <c r="G26" t="n">
-        <v>1.400993216955703</v>
+        <v>0.7530414659906153</v>
       </c>
       <c r="H26" t="n">
-        <v>1.704264375493107</v>
+        <v>1.443462623841341</v>
       </c>
       <c r="I26" t="n">
-        <v>1.112132013619473</v>
+        <v>1.313724469552223</v>
       </c>
       <c r="J26" t="n">
-        <v>2.060446033003979</v>
+        <v>1.300159489514183</v>
       </c>
     </row>
     <row r="27">
@@ -1343,25 +1343,25 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>1.936748097827731</v>
+        <v>1.170931584429343</v>
       </c>
       <c r="E27" t="n">
-        <v>1.835588175070569</v>
+        <v>1.218348537145458</v>
       </c>
       <c r="F27" t="n">
-        <v>1.758152578368849</v>
+        <v>1.138536971327735</v>
       </c>
       <c r="G27" t="n">
-        <v>1.850188776430173</v>
+        <v>1.17888535190739</v>
       </c>
       <c r="H27" t="n">
-        <v>1.019299937214774</v>
+        <v>0.8886683322977739</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7037673422641861</v>
+        <v>0.961791727230772</v>
       </c>
       <c r="J27" t="n">
-        <v>2.390852559896661</v>
+        <v>1.617350243902203</v>
       </c>
     </row>
     <row r="28">
@@ -1377,25 +1377,25 @@
         <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>1.67997678241775</v>
+        <v>0.8894298792370845</v>
       </c>
       <c r="E28" t="n">
-        <v>1.46204302165691</v>
+        <v>0.8828966657928865</v>
       </c>
       <c r="F28" t="n">
-        <v>1.675787278838963</v>
+        <v>1.065162573906509</v>
       </c>
       <c r="G28" t="n">
-        <v>1.409754917508896</v>
+        <v>0.7613476848124929</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1602749760759217</v>
+        <v>0.1928918538412206</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1050572058584294</v>
+        <v>0.2647386733194386</v>
       </c>
       <c r="J28" t="n">
-        <v>1.373583194543058</v>
+        <v>0.6407701489298777</v>
       </c>
     </row>
     <row r="29">
@@ -1411,25 +1411,25 @@
         <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8256307141293944</v>
+        <v>-0.04720073568761339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4873267042096141</v>
+        <v>0.007579693433458653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5526173427397116</v>
+        <v>0.0645965863692723</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4444191605121762</v>
+        <v>-0.1538045719347328</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2674890311347848</v>
+        <v>-0.1535801906415714</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9859197876788549</v>
+        <v>-0.4943974757494041</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2036602399537839</v>
+        <v>-0.4823576174370527</v>
       </c>
     </row>
     <row r="30">
@@ -1445,25 +1445,25 @@
         <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1741728605277766</v>
+        <v>-0.7614023837842285</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6240443941266514</v>
+        <v>-0.9904563171990117</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6055822752923558</v>
+        <v>-0.96717528299378</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3427944365669666</v>
+        <v>-0.9000944453673683</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.6049443893676332</v>
+        <v>-0.4269057765200871</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.718157316538892</v>
+        <v>-1.125447073421853</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.2389084439957661</v>
+        <v>-0.9072242084534788</v>
       </c>
     </row>
     <row r="31">
@@ -1479,25 +1479,25 @@
         <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.6159417927911083</v>
+        <v>-1.627615269953097</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.263978414715063</v>
+        <v>-1.565131327132384</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.329225557861676</v>
+        <v>-1.611826490595794</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.091521976624871</v>
+        <v>-1.609898980221161</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.31468906319142</v>
+        <v>-1.811731808392142</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.946799771318897</v>
+        <v>-1.322493418921774</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.2904882991404559</v>
+        <v>-0.9567409456633432</v>
       </c>
     </row>
     <row r="32">
@@ -1513,25 +1513,25 @@
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2565023701746668</v>
+        <v>1.021675558309349</v>
       </c>
       <c r="E32" t="n">
-        <v>0.195711573195783</v>
+        <v>0.5429065504819607</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.004085125280926685</v>
+        <v>0.286285578460823</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2426524921727151</v>
+        <v>0.7144626697046648</v>
       </c>
       <c r="H32" t="n">
-        <v>1.289176800133117</v>
+        <v>1.42896078964758</v>
       </c>
       <c r="I32" t="n">
-        <v>1.30773839290452</v>
+        <v>1.348082256996535</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5667660456152109</v>
+        <v>1.20399518366322</v>
       </c>
     </row>
     <row r="33">
@@ -1547,25 +1547,25 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0.216939542113761</v>
+        <v>0.9609530240923654</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7731924299915732</v>
+        <v>1.268933498595191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7103403810009853</v>
+        <v>1.177301065018697</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6180882664318132</v>
+        <v>1.212748629818782</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8019646987259496</v>
+        <v>0.8764890574866065</v>
       </c>
       <c r="I33" t="n">
-        <v>1.101467998279114</v>
+        <v>1.099210023365127</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8260108827772169</v>
+        <v>1.552420781491239</v>
       </c>
     </row>
     <row r="34">
@@ -1581,25 +1581,25 @@
         <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1385904315960711</v>
+        <v>0.8406998274059077</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4932114535974649</v>
+        <v>0.9169326808554287</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6088872259786784</v>
+        <v>1.050770962873433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.315541412095969</v>
+        <v>0.8112023198280823</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2398305138976554</v>
+        <v>0.2390598025440165</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5226282285457801</v>
+        <v>0.4008201905932592</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1342855127684937</v>
+        <v>0.6227404522066724</v>
       </c>
     </row>
     <row r="35">
@@ -1615,25 +1615,25 @@
         <v>50</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4728789408417606</v>
+        <v>-0.09780663713027357</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2704158771138894</v>
+        <v>-0.04312342124367576</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2335081834620716</v>
+        <v>0.0001542799343609004</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.43451379230745</v>
+        <v>-0.184286131964523</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1152844252582591</v>
+        <v>-0.1636210113870567</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2025993881324826</v>
+        <v>-0.4741915491267115</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.7140802951827364</v>
+        <v>-0.5174649499458051</v>
       </c>
     </row>
     <row r="36">
@@ -1649,25 +1649,25 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9272099693474667</v>
+        <v>-0.7951311909211161</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.056064391423671</v>
+        <v>-1.030865242330103</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.021904079157229</v>
+        <v>-0.9831154191822556</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.9965873449666172</v>
+        <v>-0.9302815299636483</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.3211671632474711</v>
+        <v>-0.3970807151801827</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.7274479193593832</v>
+        <v>-1.107439119733308</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.100334741148229</v>
+        <v>-1.036591724937878</v>
       </c>
     </row>
     <row r="37">
@@ -1683,25 +1683,25 @@
         <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.456367919380741</v>
+        <v>-1.607302951686505</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.511373017726181</v>
+        <v>-1.603293451012585</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.514063077088648</v>
+        <v>-1.596925095838254</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.521925412460784</v>
+        <v>-1.627520848359482</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.512052367871269</v>
+        <v>-1.747479052789508</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.8950892234511811</v>
+        <v>-1.309704044246469</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.9488594080928819</v>
+        <v>-0.8330085637309843</v>
       </c>
     </row>
     <row r="38">
@@ -1717,25 +1717,25 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4019286217887315</v>
+        <v>1.244881304018127</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1829924882104373</v>
+        <v>0.5269157200569637</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01588981141656318</v>
+        <v>0.3111978720225448</v>
       </c>
       <c r="G38" t="n">
-        <v>0.303897456870384</v>
+        <v>0.7957482267263896</v>
       </c>
       <c r="H38" t="n">
-        <v>1.233313076322031</v>
+        <v>1.365614398682056</v>
       </c>
       <c r="I38" t="n">
-        <v>1.176712693932417</v>
+        <v>1.189995303095456</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3410285360223539</v>
+        <v>0.9006035034541811</v>
       </c>
     </row>
     <row r="39">
@@ -1751,25 +1751,25 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3066787920360019</v>
+        <v>1.098688240230626</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7628478548097851</v>
+        <v>1.255927975969846</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7680141114918083</v>
+        <v>1.249230449654372</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6011587040948423</v>
+        <v>1.190279371954272</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7536194103573575</v>
+        <v>0.8216681588889002</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9799877116396395</v>
+        <v>0.9526399334932675</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5736540386935386</v>
+        <v>1.213252660619846</v>
       </c>
     </row>
     <row r="40">
@@ -1785,25 +1785,25 @@
         <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2367957167458528</v>
+        <v>0.9914290366175424</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4648944082017389</v>
+        <v>0.8813316080123978</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6626745509152761</v>
+        <v>1.117853309566859</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2774679477681199</v>
+        <v>0.7606704471931103</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2041616573797792</v>
+        <v>0.1986132806129781</v>
       </c>
       <c r="I40" t="n">
-        <v>0.420835354842353</v>
+        <v>0.2780036327816646</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.02614955081819824</v>
+        <v>0.4071153946174368</v>
       </c>
     </row>
     <row r="41">
@@ -1819,25 +1819,25 @@
         <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.488622076567551</v>
+        <v>-0.1219698010052181</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3192653203922726</v>
+        <v>-0.1045384652283743</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2367453318710702</v>
+        <v>-0.003883019041308321</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.4649439769902583</v>
+        <v>-0.2246736891200612</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1630177479512994</v>
+        <v>-0.2177479745594758</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2681495243854587</v>
+        <v>-0.5532800138273648</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.8371884877516769</v>
+        <v>-0.6829226156140128</v>
       </c>
     </row>
     <row r="42">
@@ -1853,25 +1853,25 @@
         <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.9428252885607777</v>
+        <v>-0.8190981771481788</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.093258634610356</v>
+        <v>-1.077627005166788</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.048568547254089</v>
+        <v>-1.016370746443424</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.043434298210327</v>
+        <v>-0.9924577547028313</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.4411998593235595</v>
+        <v>-0.5331911921687017</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.7675684805699649</v>
+        <v>-1.15584593885612</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.196538824318718</v>
+        <v>-1.165890211878342</v>
       </c>
     </row>
     <row r="43">
@@ -1887,25 +1887,25 @@
         <v>70</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.481837168216536</v>
+        <v>-1.646394124125735</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.504769456614484</v>
+        <v>-1.594991247979905</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.524968718902153</v>
+        <v>-1.610526367995035</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.510966655815293</v>
+        <v>-1.612976164684806</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.647559053172024</v>
+        <v>-1.901136182674581</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.9076175771377568</v>
+        <v>-1.32481992828482</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.051848253437683</v>
+        <v>-0.9714257850793705</v>
       </c>
     </row>
     <row r="44">
@@ -1921,25 +1921,25 @@
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.8780078469397496</v>
+        <v>1.372174687238003</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.527497202881085</v>
+        <v>0.5741521486585535</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6453641235778206</v>
+        <v>0.3424416722066481</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6203809064980805</v>
+        <v>0.8505132535651848</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9162274327182637</v>
+        <v>1.357584574475159</v>
       </c>
       <c r="I44" t="n">
-        <v>1.364488852163354</v>
+        <v>1.215908247161199</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.6206812448524139</v>
+        <v>1.151196467542634</v>
       </c>
     </row>
     <row r="45">
@@ -1955,25 +1955,25 @@
         <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8633981784000995</v>
+        <v>1.405809900187086</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1817364267103982</v>
+        <v>1.226203999762345</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1925230012729637</v>
+        <v>1.189601626693197</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.447013877371818</v>
+        <v>1.195657599748458</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5955574187291217</v>
+        <v>0.8121513301992442</v>
       </c>
       <c r="I45" t="n">
-        <v>1.210792798901256</v>
+        <v>0.937748988205488</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4212569367246741</v>
+        <v>1.553236491993102</v>
       </c>
     </row>
     <row r="46">
@@ -1989,25 +1989,25 @@
         <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.9849854446205614</v>
+        <v>1.125884754717629</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.41651100359564</v>
+        <v>0.7834551167179595</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.2753842540717208</v>
+        <v>1.034587579399064</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.6854438271549358</v>
+        <v>0.7209840153700151</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2148273448679676</v>
+        <v>0.1645608779578024</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8093634661938951</v>
+        <v>0.2112418116122846</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.8795309568300813</v>
+        <v>0.6293546443991981</v>
       </c>
     </row>
     <row r="47">
@@ -2023,25 +2023,25 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.470494055642049</v>
+        <v>0.00811911369697119</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.9430462155337144</v>
+        <v>-0.2095096244476565</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.8919440175637856</v>
+        <v>-0.1188517074741392</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.196105383127106</v>
+        <v>-0.2956565174073237</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.006092264006231275</v>
+        <v>-0.2112051548353372</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3427568649028012</v>
+        <v>-0.6332232457801868</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.485442968110507</v>
+        <v>-0.592165851858348</v>
       </c>
     </row>
     <row r="48">
@@ -2057,25 +2057,25 @@
         <v>60</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.798625571132627</v>
+        <v>-0.7473239936451026</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.42073016992858</v>
+        <v>-1.110348378210721</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.397125722925728</v>
+        <v>-1.063928665908464</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.551427263583466</v>
+        <v>-1.003042107001789</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.1741205537791677</v>
+        <v>-0.4970074164215716</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03529018484475749</v>
+        <v>-1.189676726941951</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.732189746513851</v>
+        <v>-1.089608123333156</v>
       </c>
     </row>
     <row r="49">
@@ -2091,25 +2091,25 @@
         <v>70</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.165513223676104</v>
+        <v>-1.59199369222162</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.69427994036941</v>
+        <v>-1.626221335694214</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.701184417970329</v>
+        <v>-1.632751455111371</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.886312543809046</v>
+        <v>-1.669741892263038</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.022567251097767</v>
+        <v>-1.940145266938952</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.04621868765183294</v>
+        <v>-1.337191559566207</v>
       </c>
       <c r="J49" t="n">
-        <v>-1.643300818783137</v>
+        <v>-0.9104077690045284</v>
       </c>
     </row>
     <row r="50">
@@ -2125,25 +2125,25 @@
         <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>1.351042193367629</v>
+        <v>1.100604722466014</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6605149730358379</v>
+        <v>0.4168343197050879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4603639431849106</v>
+        <v>0.2148141440118566</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9762201978392229</v>
+        <v>0.7023815746237881</v>
       </c>
       <c r="H50" t="n">
-        <v>1.430103752845902</v>
+        <v>1.318077213270073</v>
       </c>
       <c r="I50" t="n">
-        <v>1.004373257208153</v>
+        <v>1.15801611609327</v>
       </c>
       <c r="J50" t="n">
-        <v>1.035242126786504</v>
+        <v>0.7153479559495858</v>
       </c>
     </row>
     <row r="51">
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>1.383929623191864</v>
+        <v>1.140454890055341</v>
       </c>
       <c r="E51" t="n">
-        <v>1.524039353566482</v>
+        <v>1.273926258780484</v>
       </c>
       <c r="F51" t="n">
-        <v>1.560111889697962</v>
+        <v>1.297641250735553</v>
       </c>
       <c r="G51" t="n">
-        <v>1.579638485466684</v>
+        <v>1.334646548771212</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9680696678042946</v>
+        <v>0.9044551768816486</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8869945149303549</v>
+        <v>1.046209718178029</v>
       </c>
       <c r="J51" t="n">
-        <v>1.735058663858296</v>
+        <v>1.457891277976533</v>
       </c>
     </row>
     <row r="52">
@@ -2193,25 +2193,25 @@
         <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>1.274535569935494</v>
+        <v>1.007900556109501</v>
       </c>
       <c r="E52" t="n">
-        <v>1.28221200359876</v>
+        <v>1.03390029428145</v>
       </c>
       <c r="F52" t="n">
-        <v>1.470773801937559</v>
+        <v>1.20967772836977</v>
       </c>
       <c r="G52" t="n">
-        <v>1.146986419451798</v>
+        <v>0.8813113533642473</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2969181690598445</v>
+        <v>0.3036271024532786</v>
       </c>
       <c r="I52" t="n">
-        <v>0.255654977367561</v>
+        <v>0.4448418879681035</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8947021501841922</v>
+        <v>0.5662274142422891</v>
       </c>
     </row>
     <row r="53">
@@ -2227,25 +2227,25 @@
         <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>0.363564374986361</v>
+        <v>-0.09593622839411464</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4118921127378857</v>
+        <v>0.1700634650127217</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3959247907996345</v>
+        <v>0.1513664593325489</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2234006223900946</v>
+        <v>-0.08642688406661073</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.1885454589886029</v>
+        <v>-0.1309695234814275</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.5949307497103065</v>
+        <v>-0.3653638138242914</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.1580466089739047</v>
+        <v>-0.5507961476127612</v>
       </c>
     </row>
     <row r="54">
@@ -2261,25 +2261,25 @@
         <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2689874871136735</v>
+        <v>-0.862408337900567</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.7194554927385171</v>
+        <v>-0.9528566688116473</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6844307229832038</v>
+        <v>-0.9123665887096378</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.5500250110031717</v>
+        <v>-0.8968264827016684</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.5934918888680211</v>
+        <v>-0.4934855636992482</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.358563736320631</v>
+        <v>-1.092744699880238</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.7031129015525921</v>
+        <v>-1.129141062566907</v>
       </c>
     </row>
     <row r="55">
@@ -2295,25 +2295,25 @@
         <v>70</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8905157779204198</v>
+        <v>-1.615523028909491</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.363281111377533</v>
+        <v>-1.591886394372648</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.369632043298979</v>
+        <v>-1.587025328062858</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.184978642313591</v>
+        <v>-1.562134362023264</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.160735983956175</v>
+        <v>-1.896513424879057</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.59093486779307</v>
+        <v>-1.314084430441794</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.51153414213009</v>
+        <v>-0.9258656026204775</v>
       </c>
     </row>
     <row r="56">
@@ -2329,25 +2329,25 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08981999137201155</v>
+        <v>1.17077625509224</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.01584585671809099</v>
+        <v>0.4572325569546053</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1768552943465814</v>
+        <v>0.2348250301107243</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08261073349759929</v>
+        <v>0.751766057685137</v>
       </c>
       <c r="H56" t="n">
-        <v>1.143878664023532</v>
+        <v>1.332857814218999</v>
       </c>
       <c r="I56" t="n">
-        <v>1.203111724914844</v>
+        <v>1.179275364925402</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1172061376833162</v>
+        <v>0.8910705917826396</v>
       </c>
     </row>
     <row r="57">
@@ -2363,25 +2363,25 @@
         <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1828824706187225</v>
+        <v>1.323814649717082</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5696224823982542</v>
+        <v>1.245877978449766</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5803044289124587</v>
+        <v>1.246588577918804</v>
       </c>
       <c r="G57" t="n">
-        <v>0.468320065822096</v>
+        <v>1.300253094501326</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7818572551006762</v>
+        <v>0.8930231311401386</v>
       </c>
       <c r="I57" t="n">
-        <v>1.053069774811331</v>
+        <v>0.9853138937190209</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6192927773277742</v>
+        <v>1.614076466521454</v>
       </c>
     </row>
     <row r="58">
@@ -2397,25 +2397,25 @@
         <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08669692752934943</v>
+        <v>1.165640472329298</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3230609897949862</v>
+        <v>0.9137514068369176</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5182897113400063</v>
+        <v>1.16372068526684</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1221150103443094</v>
+        <v>0.8079419962309781</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2754119467475956</v>
+        <v>0.2777219190957443</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5771414817891537</v>
+        <v>0.3700742768009687</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.04566375136362189</v>
+        <v>0.6565375903022943</v>
       </c>
     </row>
     <row r="59">
@@ -2431,25 +2431,25 @@
         <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.621562101891745</v>
+        <v>0.0009302075854766824</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3119306105559168</v>
+        <v>0.05839649719233629</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2806252668910257</v>
+        <v>0.09616118897875918</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.5695391718551609</v>
+        <v>-0.1756052532220218</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.07428272499628873</v>
+        <v>-0.1471365045496167</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.0509913938181475</v>
+        <v>-0.4419224786519854</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.8656837769465173</v>
+        <v>-0.5242930653784501</v>
       </c>
     </row>
     <row r="60">
@@ -2465,25 +2465,25 @@
         <v>60</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.108903553469543</v>
+        <v>-0.8004878718306964</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.08204829225386</v>
+        <v>-0.9789777604835451</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.057392657461652</v>
+        <v>-0.9418033339129136</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.110098962644733</v>
+        <v>-0.9442930007684434</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3295598353693243</v>
+        <v>-0.4572831538107304</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.5596574681998882</v>
+        <v>-1.099482714784551</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.271334953808036</v>
+        <v>-1.10843165981163</v>
       </c>
     </row>
     <row r="61">
@@ -2499,25 +2499,25 @@
         <v>70</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.589171687479366</v>
+        <v>-1.590274097313503</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.51059542382199</v>
+        <v>-1.556245070473689</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.542966949326373</v>
+        <v>-1.59065766830197</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.577108211656295</v>
+        <v>-1.608390282554221</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.500512443703721</v>
+        <v>-1.879921585387222</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.7296105518409947</v>
+        <v>-1.319183605877663</v>
       </c>
       <c r="J61" t="n">
-        <v>-1.158574769445142</v>
+        <v>-0.9460567442218909</v>
       </c>
     </row>
     <row r="62">
@@ -2533,25 +2533,25 @@
         <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.05154507143043688</v>
+        <v>0.938305742352367</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008005920089221337</v>
+        <v>0.4893616975363188</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.144717319472235</v>
+        <v>0.2777697754258566</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06420025810042684</v>
+        <v>0.7255859623368686</v>
       </c>
       <c r="H62" t="n">
-        <v>1.200004658838426</v>
+        <v>1.401047591214079</v>
       </c>
       <c r="I62" t="n">
-        <v>1.278654714703541</v>
+        <v>1.276930916780304</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2676028857760105</v>
+        <v>1.107642242622884</v>
       </c>
     </row>
     <row r="63">
@@ -2567,25 +2567,25 @@
         <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.04403645423033754</v>
+        <v>0.9506534331882129</v>
       </c>
       <c r="E63" t="n">
-        <v>0.573945149771387</v>
+        <v>1.251700755882296</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5877531190770253</v>
+        <v>1.256541977387791</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4475813887979398</v>
+        <v>1.270762245939493</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7600013381166832</v>
+        <v>0.8664694796623036</v>
       </c>
       <c r="I63" t="n">
-        <v>1.073726643687411</v>
+        <v>1.012017336822484</v>
       </c>
       <c r="J63" t="n">
-        <v>0.6172459576791753</v>
+        <v>1.611129041687533</v>
       </c>
     </row>
     <row r="64">
@@ -2601,25 +2601,25 @@
         <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.04577885857498863</v>
+        <v>0.9477881026505868</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3298583143900417</v>
+        <v>0.9229076302603697</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5109085357964833</v>
+        <v>1.153857503000931</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1478917388638177</v>
+        <v>0.8445970632973517</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2629103622327517</v>
+        <v>0.2625332304504226</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5951137034466819</v>
+        <v>0.3933072363241982</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.01908001373625513</v>
+        <v>0.6948182314496304</v>
       </c>
     </row>
     <row r="65">
@@ -2635,25 +2635,25 @@
         <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.632989621597115</v>
+        <v>-0.01786199830039232</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4025916010017719</v>
+        <v>-0.06372688719298308</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3433065009855128</v>
+        <v>0.0124026558182069</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5293334874296888</v>
+        <v>-0.1184318978852591</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.106716905800534</v>
+        <v>-0.186542123342724</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.07067880675419491</v>
+        <v>-0.4673726915736972</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.8192441088845699</v>
+        <v>-0.4574198403639688</v>
       </c>
     </row>
     <row r="66">
@@ -2669,25 +2669,25 @@
         <v>60</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.083636881747866</v>
+        <v>-0.7589376046435572</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.144402397187011</v>
+        <v>-1.062970823953347</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.108833976224157</v>
+        <v>-1.01054239857295</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.112163399657014</v>
+        <v>-0.9472286749786986</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.3477439583000063</v>
+        <v>-0.4793757918402893</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.5863547933177099</v>
+        <v>-1.133994745943539</v>
       </c>
       <c r="J66" t="n">
-        <v>-1.187536377551228</v>
+        <v>-0.9877615241328076</v>
       </c>
     </row>
     <row r="67">
@@ -2703,25 +2703,25 @@
         <v>70</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.580997459761449</v>
+        <v>-1.576831830383007</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.554416813563103</v>
+        <v>-1.615273947141973</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.563931254417957</v>
+        <v>-1.618671466507577</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.594009776631929</v>
+        <v>-1.632424674553952</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.542038685973307</v>
+        <v>-1.930373523195109</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7343086844734605</v>
+        <v>-1.325256952143071</v>
       </c>
       <c r="J67" t="n">
-        <v>-1.203928733171746</v>
+        <v>-1.011366552585337</v>
       </c>
     </row>
     <row r="68">
@@ -2737,25 +2737,25 @@
         <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1786862303976936</v>
+        <v>0.9022403853999073</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1360875739719785</v>
+        <v>0.4679453986423037</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.04542742428134568</v>
+        <v>0.2347243893160111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1778312329505594</v>
+        <v>0.6284305821896717</v>
       </c>
       <c r="H68" t="n">
-        <v>1.240656664428652</v>
+        <v>1.373941623785505</v>
       </c>
       <c r="I68" t="n">
-        <v>1.214446902059841</v>
+        <v>1.235522906210963</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2988391334568006</v>
+        <v>0.8439008590666139</v>
       </c>
     </row>
     <row r="69">
@@ -2771,25 +2771,25 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09855251196991088</v>
+        <v>0.7792481045732129</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7330137211670122</v>
+        <v>1.218419572455919</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7023619802570255</v>
+        <v>1.167350582346502</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5640518855057919</v>
+        <v>1.141030451113114</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7746010906619905</v>
+        <v>0.8454602306130403</v>
       </c>
       <c r="I69" t="n">
-        <v>1.056127289699126</v>
+        <v>1.044504919226336</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5354906413846215</v>
+        <v>1.161960975631736</v>
       </c>
     </row>
     <row r="70">
@@ -2805,25 +2805,25 @@
         <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09297561225087153</v>
+        <v>0.7706884666349765</v>
       </c>
       <c r="E70" t="n">
-        <v>0.533536755019923</v>
+        <v>0.9676309077818437</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6748688082590061</v>
+        <v>1.1330617141448</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3170503225175074</v>
+        <v>0.813204976286717</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2646588355914712</v>
+        <v>0.2672137540842491</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5249400080950886</v>
+        <v>0.4036094311003357</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.05256598318733136</v>
+        <v>0.3716116548266735</v>
       </c>
     </row>
     <row r="71">
@@ -2839,25 +2839,25 @@
         <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5147352312303666</v>
+        <v>-0.1620492646139655</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1653133386573999</v>
+        <v>0.08901476885654165</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1737199254978783</v>
+        <v>0.07472085586424121</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4142790677873626</v>
+        <v>-0.1574301959391559</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.118868795643634</v>
+        <v>-0.1676854903065974</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1439845905274321</v>
+        <v>-0.4034708059472876</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.8517867614541182</v>
+        <v>-0.7025427256910811</v>
       </c>
     </row>
     <row r="72">
@@ -2873,25 +2873,25 @@
         <v>60</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.9859163346925827</v>
+        <v>-0.8852359547397092</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9936409815741868</v>
+        <v>-0.9523845841221226</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9879939723876633</v>
+        <v>-0.9408234936884987</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.9755937445997597</v>
+        <v>-0.90241839855137</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.3427608092276559</v>
+        <v>-0.4215667223296102</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.7067164769494546</v>
+        <v>-1.082425930669848</v>
       </c>
       <c r="J72" t="n">
-        <v>-1.205356167396247</v>
+        <v>-1.177740739227988</v>
       </c>
     </row>
     <row r="73">
@@ -2907,25 +2907,25 @@
         <v>70</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.504607800496394</v>
+        <v>-1.681343357169121</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.481332057893306</v>
+        <v>-1.565525019160363</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.511028218728416</v>
+        <v>-1.593140088479616</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.496487599367989</v>
+        <v>-1.593759267846381</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.483289981120335</v>
+        <v>-1.714864087801</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.893150311571116</v>
+        <v>-1.307364681240535</v>
       </c>
       <c r="J73" t="n">
-        <v>-1.194573877456063</v>
+        <v>-1.163249319227149</v>
       </c>
     </row>
     <row r="74">
@@ -2941,25 +2941,25 @@
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3066148837797618</v>
+        <v>0.7234788246236779</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2606041974727136</v>
+        <v>0.445004198913089</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0889512915893647</v>
+        <v>0.2380865431041676</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3964537863603146</v>
+        <v>0.674057388843896</v>
       </c>
       <c r="H74" t="n">
-        <v>1.306836381056183</v>
+        <v>1.37736173409585</v>
       </c>
       <c r="I74" t="n">
-        <v>1.276193788086535</v>
+        <v>1.341761478105498</v>
       </c>
       <c r="J74" t="n">
-        <v>0.6301462609948658</v>
+        <v>0.9912170394494375</v>
       </c>
     </row>
     <row r="75">
@@ -2975,25 +2975,25 @@
         <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>0.106882289971884</v>
+        <v>0.4360814622464885</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8762782316680852</v>
+        <v>1.170671013480157</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8038214806384529</v>
+        <v>1.073933497738339</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7567650913160211</v>
+        <v>1.122381568469225</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7835183047914596</v>
+        <v>0.8210361819837279</v>
       </c>
       <c r="I75" t="n">
-        <v>1.116158984447301</v>
+        <v>1.160742018583738</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8407123873836738</v>
+        <v>1.256530767363849</v>
       </c>
     </row>
     <row r="76">
@@ -3009,25 +3009,25 @@
         <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1186028230030333</v>
+        <v>0.4529462624004741</v>
       </c>
       <c r="E76" t="n">
-        <v>0.68615488925512</v>
+        <v>0.9465813286780859</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7502415220379187</v>
+        <v>1.011286256446527</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5107169121585327</v>
+        <v>0.8162314517454452</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1812566563805547</v>
+        <v>0.1807878143759074</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5746059816382992</v>
+        <v>0.5481775660921161</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2037705902304911</v>
+        <v>0.4539828667809279</v>
       </c>
     </row>
     <row r="77">
@@ -3043,25 +3043,25 @@
         <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4037917042142206</v>
+        <v>-0.2987328019936518</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.03633326083307685</v>
+        <v>0.09501760287933915</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0302744528868317</v>
+        <v>0.09868434538911133</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2475518339340037</v>
+        <v>-0.1272588269435735</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1997356884844073</v>
+        <v>-0.2242350316155109</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1872372401596577</v>
+        <v>-0.3135627873441842</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.5965323326852937</v>
+        <v>-0.5544003693124191</v>
       </c>
     </row>
     <row r="78">
@@ -3077,25 +3077,25 @@
         <v>60</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.8284415680530816</v>
+        <v>-0.9097660263381684</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9199342959222232</v>
+        <v>-0.9464425089138981</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.8827985783703527</v>
+        <v>-0.8981115833730411</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.890248945972144</v>
+        <v>-0.9269469064988032</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.4890206056845356</v>
+        <v>-0.5317661462060578</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.82536296930268</v>
+        <v>-1.035363120581696</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.9626496329949199</v>
+        <v>-1.015708878259137</v>
       </c>
     </row>
     <row r="79">
@@ -3111,25 +3111,25 @@
         <v>70</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.384203439924446</v>
+        <v>-1.709457719318825</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.439528493491066</v>
+        <v>-1.558864416084445</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.467350066128497</v>
+        <v>-1.581586133514016</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.465325062654414</v>
+        <v>-1.642496279187493</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.726502625318207</v>
+        <v>-1.847300424546702</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.054229144684231</v>
+        <v>-1.294239505144735</v>
       </c>
       <c r="J79" t="n">
-        <v>-1.113267081641028</v>
+        <v>-1.205487155869986</v>
       </c>
     </row>
     <row r="80">
@@ -3145,25 +3145,25 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.09027226889560294</v>
+        <v>0.8746200531641785</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.07483667751781117</v>
+        <v>0.3777699496270112</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2092645967769275</v>
+        <v>0.1915177201711889</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01191739612131115</v>
+        <v>0.6512385985581005</v>
       </c>
       <c r="H80" t="n">
-        <v>1.167133359694501</v>
+        <v>1.361110899391415</v>
       </c>
       <c r="I80" t="n">
-        <v>1.27761068522966</v>
+        <v>1.27558128427688</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0733935181442658</v>
+        <v>0.8279803224680417</v>
       </c>
     </row>
     <row r="81">
@@ -3179,25 +3179,25 @@
         <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2524473069091189</v>
+        <v>0.607928174044825</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5211289978786255</v>
+        <v>1.180555633954632</v>
       </c>
       <c r="F81" t="n">
-        <v>0.505525133118511</v>
+        <v>1.146663868123867</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3611815317115138</v>
+        <v>1.14789977510146</v>
       </c>
       <c r="H81" t="n">
-        <v>0.7363095241060352</v>
+        <v>0.8376853214603304</v>
       </c>
       <c r="I81" t="n">
-        <v>1.123392617230621</v>
+        <v>1.076221283056803</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3034880838238793</v>
+        <v>1.159317007406802</v>
       </c>
     </row>
     <row r="82">
@@ -3213,25 +3213,25 @@
         <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.2447578172856995</v>
+        <v>0.6205733040368251</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3465263281944762</v>
+        <v>0.9453600019669693</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4812782468466238</v>
+        <v>1.114263682371579</v>
       </c>
       <c r="G82" t="n">
-        <v>0.12623504309687</v>
+        <v>0.8138007721709302</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2572278238169136</v>
+        <v>0.2556292810661856</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6482846330807798</v>
+        <v>0.4620420916771553</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.2554538661291353</v>
+        <v>0.3544393597160251</v>
       </c>
     </row>
     <row r="83">
@@ -3247,25 +3247,25 @@
         <v>50</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.7429624666081091</v>
+        <v>-0.1987089710980133</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3119868527655061</v>
+        <v>0.05832073705617902</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.2711899716929609</v>
+        <v>0.1087692126902166</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5545856338104588</v>
+        <v>-0.1543409977718671</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.109776734178293</v>
+        <v>-0.1902596345496209</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01053177160700081</v>
+        <v>-0.3623905632716352</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.9262304819952426</v>
+        <v>-0.611480454943935</v>
       </c>
     </row>
     <row r="84">
@@ -3281,25 +3281,25 @@
         <v>60</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.170786038568162</v>
+        <v>-0.9022517217898403</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.099669157944624</v>
+        <v>-1.002713655529171</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.046471025343162</v>
+        <v>-0.9272091750840545</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.11264524898108</v>
+        <v>-0.9479138751691005</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.3480062293038141</v>
+        <v>-0.4796944356580232</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.532363554811277</v>
+        <v>-1.064199465052177</v>
       </c>
       <c r="J84" t="n">
-        <v>-1.350509497502183</v>
+        <v>-1.222443178343908</v>
       </c>
     </row>
     <row r="85">
@@ -3315,25 +3315,25 @@
         <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.644281103232721</v>
+        <v>-1.680899842338499</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.548877500198019</v>
+        <v>-1.607812306893085</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.552499963054896</v>
+        <v>-1.603396269544199</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.591522432108923</v>
+        <v>-1.628887616690347</v>
       </c>
       <c r="H85" t="n">
-        <v>-1.499201088684681</v>
+        <v>-1.878328366298552</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.7219294778545822</v>
+        <v>-1.309254166745328</v>
       </c>
       <c r="J85" t="n">
-        <v>-1.30429764936634</v>
+        <v>-1.155898014528332</v>
       </c>
     </row>
     <row r="86">
@@ -3349,25 +3349,25 @@
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8923461103791286</v>
+        <v>0.8474620956048247</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3863055359044719</v>
+        <v>0.2775549302931737</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2513950232220485</v>
+        <v>0.1331967451769503</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7238239853848709</v>
+        <v>0.6285785649423117</v>
       </c>
       <c r="H86" t="n">
-        <v>1.39347323598073</v>
+        <v>1.339856176586268</v>
       </c>
       <c r="I86" t="n">
-        <v>1.248601580562529</v>
+        <v>1.366917128377653</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7085056365159185</v>
+        <v>0.5823775337273911</v>
       </c>
     </row>
     <row r="87">
@@ -3383,25 +3383,25 @@
         <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4856219095074555</v>
+        <v>0.3272489432006592</v>
       </c>
       <c r="E87" t="n">
-        <v>1.120267459601821</v>
+        <v>1.046521452765189</v>
       </c>
       <c r="F87" t="n">
-        <v>1.059023956226308</v>
+        <v>0.9725773388281997</v>
       </c>
       <c r="G87" t="n">
-        <v>1.068039754662387</v>
+        <v>1.009287012832738</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7498601926361107</v>
+        <v>0.7316713431379337</v>
       </c>
       <c r="I87" t="n">
-        <v>1.047924200975773</v>
+        <v>1.165147069115748</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9709399526433928</v>
+        <v>0.876304420527717</v>
       </c>
     </row>
     <row r="88">
@@ -3417,25 +3417,25 @@
         <v>40</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4518783502128386</v>
+        <v>0.2840898606666741</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9430003605950061</v>
+        <v>0.8608000137220084</v>
       </c>
       <c r="F88" t="n">
-        <v>1.011294418735027</v>
+        <v>0.9229713305774784</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8466012561202478</v>
+        <v>0.7643722976815087</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2115926691543367</v>
+        <v>0.2230331986742832</v>
       </c>
       <c r="I88" t="n">
-        <v>0.571548466750504</v>
+        <v>0.6861774895672322</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2462127305265669</v>
+        <v>0.06460868149648356</v>
       </c>
     </row>
     <row r="89">
@@ -3451,25 +3451,25 @@
         <v>50</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1203887331945722</v>
+        <v>-0.4478578887873481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2260693036671826</v>
+        <v>0.1096766054111121</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1685703196918268</v>
+        <v>0.04711581620431296</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09526848791265544</v>
+        <v>-0.0666144192661344</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.1438719646733218</v>
+        <v>-0.112864591708891</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.2428690964107613</v>
+        <v>-0.1326745420935903</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.4928244306987245</v>
+        <v>-0.7631142140229672</v>
       </c>
     </row>
     <row r="90">
@@ -3485,25 +3485,25 @@
         <v>60</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5667722274195891</v>
+        <v>-1.01879653520748</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.7082241049100456</v>
+        <v>-0.8691757439628144</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.665232965870813</v>
+        <v>-0.8194681658980718</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5700725952659002</v>
+        <v>-0.8024928818545969</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.3615568978338897</v>
+        <v>-0.31856687849052</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.9729439927891871</v>
+        <v>-0.8667246647892641</v>
       </c>
       <c r="J90" t="n">
-        <v>-1.045536929547308</v>
+        <v>-1.382153166243228</v>
       </c>
     </row>
     <row r="91">
@@ -3519,25 +3519,25 @@
         <v>70</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.067688757275646</v>
+        <v>-1.659484663745944</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.353252218275374</v>
+        <v>-1.544966965846077</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.319590510758493</v>
+        <v>-1.49955155821148</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.208761663996828</v>
+        <v>-1.508893766832927</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.245672451670365</v>
+        <v>-1.154015563720486</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.294206776609234</v>
+        <v>-1.18973671060877</v>
       </c>
       <c r="J91" t="n">
-        <v>-1.152448549244727</v>
+        <v>-1.501894364742508</v>
       </c>
     </row>
     <row r="92">
@@ -3553,25 +3553,25 @@
         <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7141807443279519</v>
+        <v>0.9444520017465917</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4527094427810076</v>
+        <v>0.4997394848705556</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277222157729346</v>
+        <v>0.3003588104172394</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6485390807492912</v>
+        <v>0.7535037717136118</v>
       </c>
       <c r="H92" t="n">
-        <v>1.374065181698944</v>
+        <v>1.381429128710455</v>
       </c>
       <c r="I92" t="n">
-        <v>1.231076800108093</v>
+        <v>1.321735313459102</v>
       </c>
       <c r="J92" t="n">
-        <v>0.8724007152303291</v>
+        <v>1.015595748075443</v>
       </c>
     </row>
     <row r="93">
@@ -3587,25 +3587,25 @@
         <v>30</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3912499139159065</v>
+        <v>0.5071168292422138</v>
       </c>
       <c r="E93" t="n">
-        <v>1.087705397367491</v>
+        <v>1.20415424070798</v>
       </c>
       <c r="F93" t="n">
-        <v>1.056152300502659</v>
+        <v>1.157533125824727</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9756219384338083</v>
+        <v>1.136542880850107</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8121932678744581</v>
+        <v>0.8192539633757155</v>
       </c>
       <c r="I93" t="n">
-        <v>1.057395039774553</v>
+        <v>1.136835660489998</v>
       </c>
       <c r="J93" t="n">
-        <v>1.100555251851705</v>
+        <v>1.286160603551066</v>
       </c>
     </row>
     <row r="94">
@@ -3621,25 +3621,25 @@
         <v>40</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4144305236886238</v>
+        <v>0.5385096075680634</v>
       </c>
       <c r="E94" t="n">
-        <v>0.854188468859256</v>
+        <v>0.9451088578343941</v>
       </c>
       <c r="F94" t="n">
-        <v>0.972640267672487</v>
+        <v>1.065632240702192</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7153525732623843</v>
+        <v>0.8317474951287888</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2086202644445137</v>
+        <v>0.2153552016718033</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4797484465827979</v>
+        <v>0.5218795798121606</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4115032062883694</v>
+        <v>0.4690246838195511</v>
       </c>
     </row>
     <row r="95">
@@ -3655,25 +3655,25 @@
         <v>50</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1373919468028272</v>
+        <v>-0.2088063889140396</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04008792785073482</v>
+        <v>0.0420095078628198</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04495790154833161</v>
+        <v>0.04476341892713178</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1230755654290622</v>
+        <v>-0.150116151265981</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.197462673118072</v>
+        <v>-0.1909469055290473</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.3630070594409598</v>
+        <v>-0.3753084743758374</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.4807606536742</v>
+        <v>-0.5890969117090239</v>
       </c>
     </row>
     <row r="96">
@@ -3689,25 +3689,25 @@
         <v>60</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5984538410883556</v>
+        <v>-0.8332081619354474</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.9056451461569274</v>
+        <v>-1.007112659928491</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.8644846028762883</v>
+        <v>-0.9560333320589344</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.7832032452175747</v>
+        <v>-0.9231762870754235</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.4578103562313939</v>
+        <v>-0.4514351025676119</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.01239339219513</v>
+        <v>-1.066637876718028</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.9947010488488043</v>
+        <v>-1.198570695586756</v>
       </c>
     </row>
     <row r="97">
@@ -3723,25 +3723,25 @@
         <v>70</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.195731963192484</v>
+        <v>-1.64208333260344</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.433402446881429</v>
+        <v>-1.592565256037331</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.444155240398817</v>
+        <v>-1.593932361246714</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.389928168573486</v>
+        <v>-1.63369769984024</v>
       </c>
       <c r="H97" t="n">
-        <v>-1.794255967968584</v>
+        <v>-1.788602015975449</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.220378978099056</v>
+        <v>-1.288056997426843</v>
       </c>
       <c r="J97" t="n">
-        <v>-1.035811866451704</v>
+        <v>-1.247323363791081</v>
       </c>
     </row>
     <row r="98">
@@ -3757,25 +3757,25 @@
         <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>1.47048551846367</v>
+        <v>0.9379095533963689</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8243401839508447</v>
+        <v>0.4381019006372005</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6002430701557783</v>
+        <v>0.2236443714336903</v>
       </c>
       <c r="G98" t="n">
-        <v>1.121202323205623</v>
+        <v>0.6618826701397083</v>
       </c>
       <c r="H98" t="n">
-        <v>1.567184064169505</v>
+        <v>1.383904553819989</v>
       </c>
       <c r="I98" t="n">
-        <v>1.095129247901978</v>
+        <v>1.273132665306382</v>
       </c>
       <c r="J98" t="n">
-        <v>1.473044390719578</v>
+        <v>0.946975808245574</v>
       </c>
     </row>
     <row r="99">
@@ -3791,25 +3791,25 @@
         <v>30</v>
       </c>
       <c r="D99" t="n">
-        <v>1.452031708020387</v>
+        <v>0.9166668454493239</v>
       </c>
       <c r="E99" t="n">
-        <v>1.668413105581839</v>
+        <v>1.233998007060181</v>
       </c>
       <c r="F99" t="n">
-        <v>1.678337097948011</v>
+        <v>1.232075411075265</v>
       </c>
       <c r="G99" t="n">
-        <v>1.657188229279906</v>
+        <v>1.195411179129525</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9322259639505464</v>
+        <v>0.8438988759061438</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8608192045494736</v>
+        <v>1.061105399018453</v>
       </c>
       <c r="J99" t="n">
-        <v>1.963063693653167</v>
+        <v>1.44091602642206</v>
       </c>
     </row>
     <row r="100">
@@ -3825,25 +3825,25 @@
         <v>40</v>
       </c>
       <c r="D100" t="n">
-        <v>1.435584375659803</v>
+        <v>0.897733851696209</v>
       </c>
       <c r="E100" t="n">
-        <v>1.349160915628863</v>
+        <v>0.9329676476694259</v>
       </c>
       <c r="F100" t="n">
-        <v>1.581928249612269</v>
+        <v>1.141896194187333</v>
       </c>
       <c r="G100" t="n">
-        <v>1.280654663747324</v>
+        <v>0.8206039509421188</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2457753233173014</v>
+        <v>0.260100915975053</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1770544726910685</v>
+        <v>0.4423663778236651</v>
       </c>
       <c r="J100" t="n">
-        <v>1.175479530049457</v>
+        <v>0.6470299666815013</v>
       </c>
     </row>
     <row r="101">
@@ -3859,25 +3859,25 @@
         <v>50</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5424025864522892</v>
+        <v>-0.1304332008520412</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3831759290805592</v>
+        <v>0.0221178028820109</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4338334890726785</v>
+        <v>0.06798764527446759</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2867925426387227</v>
+        <v>-0.1687014946063709</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.2545503282802611</v>
+        <v>-0.1654054167663672</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.7467624646261878</v>
+        <v>-0.3935959947972348</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02869453670521353</v>
+        <v>-0.5089310871440562</v>
       </c>
     </row>
     <row r="102">
@@ -3893,25 +3893,25 @@
         <v>60</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0509288993749927</v>
+        <v>-0.8134340102487254</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7195168148896175</v>
+        <v>-1.017636984904456</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6722862132549798</v>
+        <v>-0.966658139444854</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5106371442378105</v>
+        <v>-0.9624751126098445</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.6142112981688462</v>
+        <v>-0.4712822388698451</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.511290333642696</v>
+        <v>-1.085417616052438</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.5386909892590643</v>
+        <v>-1.080856578256716</v>
       </c>
     </row>
     <row r="103">
@@ -3927,25 +3927,25 @@
         <v>70</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.7782374124201707</v>
+        <v>-1.650659599917768</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.34693458530017</v>
+        <v>-1.609243880201415</v>
       </c>
       <c r="F103" t="n">
-        <v>-1.364875562102128</v>
+        <v>-1.614494579586242</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.189462640763535</v>
+        <v>-1.63818831872435</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.330862441759574</v>
+        <v>-1.931223240042399</v>
       </c>
       <c r="I103" t="n">
-        <v>-1.751939127372337</v>
+        <v>-1.30318082047992</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.3787400430153451</v>
+        <v>-0.9196257760981621</v>
       </c>
     </row>
     <row r="104">
@@ -3961,25 +3961,25 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>3.296690468471516</v>
+        <v>0.9807328307951428</v>
       </c>
       <c r="E104" t="n">
-        <v>1.798519841862771</v>
+        <v>0.422312148656261</v>
       </c>
       <c r="F104" t="n">
-        <v>1.515579144131673</v>
+        <v>0.222923557084531</v>
       </c>
       <c r="G104" t="n">
-        <v>2.476841926876797</v>
+        <v>0.7136490905183442</v>
       </c>
       <c r="H104" t="n">
-        <v>1.934450893168519</v>
+        <v>1.335037180577328</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9239084141854439</v>
+        <v>1.299585462373495</v>
       </c>
       <c r="J104" t="n">
-        <v>2.756215206701064</v>
+        <v>0.7578097786441862</v>
       </c>
     </row>
     <row r="105">
@@ -3995,25 +3995,25 @@
         <v>30</v>
       </c>
       <c r="D105" t="n">
-        <v>2.866911062707294</v>
+        <v>0.6142651703480312</v>
       </c>
       <c r="E105" t="n">
-        <v>2.841596569374375</v>
+        <v>1.150861371650952</v>
       </c>
       <c r="F105" t="n">
-        <v>2.781327776786088</v>
+        <v>1.099930967520397</v>
       </c>
       <c r="G105" t="n">
-        <v>2.998970612634527</v>
+        <v>1.098637847175477</v>
       </c>
       <c r="H105" t="n">
-        <v>1.096495036002236</v>
+        <v>0.8071505891979666</v>
       </c>
       <c r="I105" t="n">
-        <v>0.6910898415099131</v>
+        <v>1.143527955866454</v>
       </c>
       <c r="J105" t="n">
-        <v>3.216407897746637</v>
+        <v>1.101420850557985</v>
       </c>
     </row>
     <row r="106">
@@ -4029,25 +4029,25 @@
         <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>2.868952509458501</v>
+        <v>0.6160058871083234</v>
       </c>
       <c r="E106" t="n">
-        <v>2.549529686419005</v>
+        <v>0.946863818041216</v>
       </c>
       <c r="F106" t="n">
-        <v>2.695324555965142</v>
+        <v>1.040341361783952</v>
       </c>
       <c r="G106" t="n">
-        <v>2.582119373231125</v>
+        <v>0.7912748450144255</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2333611624703935</v>
+        <v>0.2634026166691785</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.1745597394053846</v>
+        <v>0.5632859521721139</v>
       </c>
       <c r="J106" t="n">
-        <v>2.209294317536429</v>
+        <v>0.3494415523889423</v>
       </c>
     </row>
     <row r="107">
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D107" t="n">
-        <v>1.869017404375093</v>
+        <v>-0.2366265881664125</v>
       </c>
       <c r="E107" t="n">
-        <v>1.378827411201764</v>
+        <v>0.1291730284073839</v>
       </c>
       <c r="F107" t="n">
-        <v>1.297427220449383</v>
+        <v>0.07177122815095266</v>
       </c>
       <c r="G107" t="n">
-        <v>1.364763157840105</v>
+        <v>-0.1063361626858591</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.3287730223579006</v>
+        <v>-0.09072474718781603</v>
       </c>
       <c r="I107" t="n">
-        <v>-1.446038491525115</v>
+        <v>-0.2889819805457098</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8786657631982141</v>
+        <v>-0.6440959652027562</v>
       </c>
     </row>
     <row r="108">
@@ -4097,25 +4097,25 @@
         <v>60</v>
       </c>
       <c r="D108" t="n">
-        <v>1.086254612156097</v>
+        <v>-0.9040788795098353</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.0908159963945024</v>
+        <v>-0.8973167152932944</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.0609118772363233</v>
+        <v>-0.869389934359569</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3210200536460477</v>
+        <v>-0.8759344837778679</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.7466581550918424</v>
+        <v>-0.3539796148762195</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.504908098642302</v>
+        <v>-0.9987387181797494</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02224438504736832</v>
+        <v>-1.283558245856758</v>
       </c>
     </row>
     <row r="109">
@@ -4131,25 +4131,25 @@
         <v>70</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2280764601256635</v>
+        <v>-1.635836928879821</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.007119517815469</v>
+        <v>-1.537319699686518</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.020110119226635</v>
+        <v>-1.533995800485151</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.5807602195700212</v>
+        <v>-1.540857280845705</v>
       </c>
       <c r="H109" t="n">
-        <v>-2.481231150609445</v>
+        <v>-1.446707612743502</v>
       </c>
       <c r="I109" t="n">
-        <v>-2.893958224730786</v>
+        <v>-1.259517709674699</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08925548049932015</v>
+        <v>-1.233523217516678</v>
       </c>
     </row>
     <row r="110">
@@ -4165,25 +4165,25 @@
         <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>1.155743385563407</v>
+        <v>1.184355564359868</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5052516406851252</v>
+        <v>0.4021738915793547</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3090743376288975</v>
+        <v>0.1931437024858242</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7968970984748163</v>
+        <v>0.7093986607949392</v>
       </c>
       <c r="H110" t="n">
-        <v>1.370305963977698</v>
+        <v>1.317964166145653</v>
       </c>
       <c r="I110" t="n">
-        <v>1.082824614816948</v>
+        <v>1.200237514204775</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8233268792727934</v>
+        <v>0.710977523698518</v>
       </c>
     </row>
     <row r="111">
@@ -4199,25 +4199,25 @@
         <v>30</v>
       </c>
       <c r="D111" t="n">
-        <v>1.028412816994451</v>
+        <v>1.02149572879879</v>
       </c>
       <c r="E111" t="n">
-        <v>1.242760089263277</v>
+        <v>1.174856082148583</v>
       </c>
       <c r="F111" t="n">
-        <v>1.274789263436132</v>
+        <v>1.196825386729886</v>
       </c>
       <c r="G111" t="n">
-        <v>1.244912348137126</v>
+        <v>1.204911085133255</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8385077919231853</v>
+        <v>0.815439262333344</v>
       </c>
       <c r="I111" t="n">
-        <v>0.939643429827512</v>
+        <v>1.056276713839535</v>
       </c>
       <c r="J111" t="n">
-        <v>1.31708385286904</v>
+        <v>1.263986185929264</v>
       </c>
     </row>
     <row r="112">
@@ -4233,25 +4233,25 @@
         <v>40</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8953196530185135</v>
+        <v>0.8512653509481937</v>
       </c>
       <c r="E112" t="n">
-        <v>1.031572043667865</v>
+        <v>0.953595916238219</v>
       </c>
       <c r="F112" t="n">
-        <v>1.207493430374732</v>
+        <v>1.126883840560643</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8473277139696801</v>
+        <v>0.7651757723186401</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2822309928466014</v>
+        <v>0.289783177678121</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3452923650536557</v>
+        <v>0.4586894331567444</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5531324469123697</v>
+        <v>0.4083592933299546</v>
       </c>
     </row>
     <row r="113">
@@ -4267,25 +4267,25 @@
         <v>50</v>
       </c>
       <c r="D113" t="n">
-        <v>0.08910855984028541</v>
+        <v>-0.1799042066699954</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1498447812904506</v>
+        <v>0.02981673256667903</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1573753295024189</v>
+        <v>0.03548069873006646</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.04217203243671746</v>
+        <v>-0.2186259534537991</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.1752570614623354</v>
+        <v>-0.142522070003913</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.5322144077435795</v>
+        <v>-0.4235953261650117</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.4654753605070989</v>
+        <v>-0.732483208227203</v>
       </c>
     </row>
     <row r="114">
@@ -4301,25 +4301,25 @@
         <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.4067664526697601</v>
+        <v>-0.8141440746283223</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.8333401615091115</v>
+        <v>-1.000258918500991</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.7862468325472127</v>
+        <v>-0.9452396521585001</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.7183967214487544</v>
+        <v>-0.9665418677052482</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.4971510068025809</v>
+        <v>-0.4466970980882335</v>
       </c>
       <c r="I114" t="n">
-        <v>-1.205016830126231</v>
+        <v>-1.10006112871459</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.854064960715167</v>
+        <v>-1.167704230834098</v>
       </c>
     </row>
     <row r="115">
@@ -4335,25 +4335,25 @@
         <v>70</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.031762670739632</v>
+        <v>-1.613534059650121</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.378938579674188</v>
+        <v>-1.571878378226033</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.396070362796779</v>
+        <v>-1.579038189983645</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.308939169951796</v>
+        <v>-1.619691778457146</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.90371040022442</v>
+        <v>-1.775831271594109</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.407633121593053</v>
+        <v>-1.303780657148108</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.9146792998044547</v>
+        <v>-1.235592395182695</v>
       </c>
     </row>
     <row r="116">
@@ -4369,25 +4369,25 @@
         <v>20</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04223267595227</v>
+        <v>1.039171766710525</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6688827252638087</v>
+        <v>0.5736089783518933</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4340111591280575</v>
+        <v>0.3229923732222303</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8380826905470886</v>
+        <v>0.7549506204456944</v>
       </c>
       <c r="H116" t="n">
-        <v>1.431589955200813</v>
+        <v>1.375874729613092</v>
       </c>
       <c r="I116" t="n">
-        <v>1.165302943253571</v>
+        <v>1.283164933581834</v>
       </c>
       <c r="J116" t="n">
-        <v>1.069667853432763</v>
+        <v>0.9868798397318714</v>
       </c>
     </row>
     <row r="117">
@@ -4403,25 +4403,25 @@
         <v>30</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9147670559739017</v>
+        <v>0.8761391961135774</v>
       </c>
       <c r="E117" t="n">
-        <v>1.44646646957147</v>
+        <v>1.388277762229559</v>
       </c>
       <c r="F117" t="n">
-        <v>1.357397463313157</v>
+        <v>1.28268130028081</v>
       </c>
       <c r="G117" t="n">
-        <v>1.28561461734</v>
+        <v>1.249928481536588</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8714665147350465</v>
+        <v>0.8465837451111248</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9918449035215773</v>
+        <v>1.108762422306029</v>
       </c>
       <c r="J117" t="n">
-        <v>1.348800658206458</v>
+        <v>1.299509062623296</v>
       </c>
     </row>
     <row r="118">
@@ -4437,25 +4437,25 @@
         <v>40</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7739940489037874</v>
+        <v>0.6960860553749383</v>
       </c>
       <c r="E118" t="n">
-        <v>1.077616996379058</v>
+        <v>1.001836875367748</v>
       </c>
       <c r="F118" t="n">
-        <v>1.193358254583174</v>
+        <v>1.112192945073346</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8976080278405235</v>
+        <v>0.8207866477105209</v>
       </c>
       <c r="H118" t="n">
-        <v>0.153281082641044</v>
+        <v>0.1679314214520556</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2821285818838368</v>
+        <v>0.3951817259122874</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5415100709946741</v>
+        <v>0.3953422122518383</v>
       </c>
     </row>
     <row r="119">
@@ -4471,25 +4471,25 @@
         <v>50</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08635206410888556</v>
+        <v>-0.1834298521342854</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1199620253503556</v>
+        <v>-0.001491211585762102</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1384910331305888</v>
+        <v>0.01585397257959354</v>
       </c>
       <c r="G119" t="n">
-        <v>0.008677069932870058</v>
+        <v>-0.1623859883865983</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.2826133256877078</v>
+        <v>-0.2439688202721219</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.5796431752713305</v>
+        <v>-0.4712823412859973</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.451866679608676</v>
+        <v>-0.7172414621440057</v>
       </c>
     </row>
     <row r="120">
@@ -4505,25 +4505,25 @@
         <v>60</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.4704070177230511</v>
+        <v>-0.8955423757281884</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.8615461738975196</v>
+        <v>-1.029810150736385</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.814593582254144</v>
+        <v>-0.9747008448235255</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.6940404906307727</v>
+        <v>-0.9396034655203707</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.545059176831493</v>
+        <v>-0.4919681234522224</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.225226257799219</v>
+        <v>-1.120380595849475</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.8816418508328975</v>
+        <v>-1.198590395340122</v>
       </c>
     </row>
     <row r="121">
@@ -4539,25 +4539,25 @@
         <v>70</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.057623809825955</v>
+        <v>-1.646611276742258</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.378832989461347</v>
+        <v>-1.571767752134742</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.413960975930313</v>
+        <v>-1.597632166572559</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.28474797621117</v>
+        <v>-1.592935910064071</v>
       </c>
       <c r="H121" t="n">
-        <v>-1.991221491828327</v>
+        <v>-1.858525243107527</v>
       </c>
       <c r="I121" t="n">
-        <v>-1.4133752836994</v>
+        <v>-1.309554085079423</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.6197130101664681</v>
+        <v>-0.9052296419281863</v>
       </c>
     </row>
     <row r="122">
@@ -4573,25 +4573,25 @@
         <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3533523179657025</v>
+        <v>0.7907298178303113</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2792533884665467</v>
+        <v>0.4669851470627608</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1620683571080629</v>
+        <v>0.3235771363360453</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4188855669727012</v>
+        <v>0.7019685576089723</v>
       </c>
       <c r="H122" t="n">
-        <v>1.35526909309271</v>
+        <v>1.428849264311372</v>
       </c>
       <c r="I122" t="n">
-        <v>1.344204850956517</v>
+        <v>1.418690530800673</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6110521034381979</v>
+        <v>0.9671583638702967</v>
       </c>
     </row>
     <row r="123">
@@ -4607,25 +4607,25 @@
         <v>30</v>
       </c>
       <c r="D123" t="n">
-        <v>0.009863527919082694</v>
+        <v>0.2964801293669099</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8007990092816507</v>
+        <v>1.081707107528291</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7942671465032846</v>
+        <v>1.062762293213696</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6785478314667088</v>
+        <v>1.025058258397689</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7982929046726387</v>
+        <v>0.8367426668328671</v>
       </c>
       <c r="I123" t="n">
-        <v>1.156055825056336</v>
+        <v>1.205870355416982</v>
       </c>
       <c r="J123" t="n">
-        <v>0.779453745065871</v>
+        <v>1.179344759153292</v>
       </c>
     </row>
     <row r="124">
@@ -4641,25 +4641,25 @@
         <v>40</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08872390448669137</v>
+        <v>0.4099531674400214</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6103617990538813</v>
+        <v>0.8572474810936123</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7642325312702561</v>
+        <v>1.027644950148195</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4943635060469736</v>
+        <v>0.7958834158159429</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2135159898489281</v>
+        <v>0.2150818552595314</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5662537458472487</v>
+        <v>0.5387301385681471</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1835230942979174</v>
+        <v>0.4284709826097589</v>
       </c>
     </row>
     <row r="125">
@@ -4675,25 +4675,25 @@
         <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.4457167261236879</v>
+        <v>-0.3590591637790338</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.1052684299940897</v>
+        <v>0.01376687304778011</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.04366798310436757</v>
+        <v>0.08302424147707174</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.2640732242135855</v>
+        <v>-0.1478158803623497</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.1736834354394879</v>
+        <v>-0.1965395731241289</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.1643431652681177</v>
+        <v>-0.287666713684734</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.5750567449635605</v>
+        <v>-0.5273410871034414</v>
       </c>
     </row>
     <row r="126">
@@ -4709,25 +4709,25 @@
         <v>60</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8488777402559535</v>
+        <v>-0.9391718527795</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.9320260081309262</v>
+        <v>-0.9606944568503069</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.861418017720453</v>
+        <v>-0.8731128118738944</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.8421052728349246</v>
+        <v>-0.8670432274675632</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.3835002384858185</v>
+        <v>-0.4195902455379435</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.7799476871888432</v>
+        <v>-0.9839927334201154</v>
       </c>
       <c r="J126" t="n">
-        <v>-1.190814848675332</v>
+        <v>-1.303197492837096</v>
       </c>
     </row>
     <row r="127">
@@ -4743,25 +4743,25 @@
         <v>70</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.329641464705674</v>
+        <v>-1.630947910453837</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.468220365999731</v>
+        <v>-1.592682213442975</v>
       </c>
       <c r="F127" t="n">
-        <v>-1.432037888807629</v>
+        <v>-1.540298111818202</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.407087603982488</v>
+        <v>-1.570033215932331</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.568965175697586</v>
+        <v>-1.679826544675996</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.02581662828789</v>
+        <v>-1.262101381156948</v>
       </c>
       <c r="J127" t="n">
-        <v>-1.100583919192406</v>
+        <v>-1.189506346569375</v>
       </c>
     </row>
     <row r="128">
@@ -4777,25 +4777,25 @@
         <v>20</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5754130095243816</v>
+        <v>1.11025531852554</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2913806602658287</v>
+        <v>0.4812790074615921</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1261916966398207</v>
+        <v>0.2816291045756031</v>
       </c>
       <c r="G128" t="n">
-        <v>0.450457749288998</v>
+        <v>0.7412528446720026</v>
       </c>
       <c r="H128" t="n">
-        <v>1.298968250941945</v>
+        <v>1.368997333880332</v>
       </c>
       <c r="I128" t="n">
-        <v>1.208108151682704</v>
+        <v>1.264748073378859</v>
       </c>
       <c r="J128" t="n">
-        <v>0.6027153180172962</v>
+        <v>0.9566539980600155</v>
       </c>
     </row>
     <row r="129">
@@ -4811,25 +4811,25 @@
         <v>30</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5646981271668927</v>
+        <v>1.094837559866249</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9055365176552584</v>
+        <v>1.205156416490132</v>
       </c>
       <c r="F129" t="n">
-        <v>0.931186544165909</v>
+        <v>1.222852423309736</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8362437059708382</v>
+        <v>1.221274343197065</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8401688416139688</v>
+        <v>0.8812598635354576</v>
       </c>
       <c r="I129" t="n">
-        <v>1.016752463827031</v>
+        <v>1.048300760642216</v>
       </c>
       <c r="J129" t="n">
-        <v>0.98563433787716</v>
+        <v>1.439132706248632</v>
       </c>
     </row>
     <row r="130">
@@ -4845,25 +4845,25 @@
         <v>40</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5049342610534312</v>
+        <v>1.008842694636621</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6829109837472039</v>
+        <v>0.9427578856775013</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8798838080465992</v>
+        <v>1.162867776577208</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4995960655263524</v>
+        <v>0.8023941272581543</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2641342935838553</v>
+        <v>0.2688928299793642</v>
       </c>
       <c r="I130" t="n">
-        <v>0.4348551792059018</v>
+        <v>0.3901018591285659</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2764380272852665</v>
+        <v>0.5455439785021391</v>
       </c>
     </row>
     <row r="131">
@@ -4879,25 +4879,25 @@
         <v>50</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.2513319269653109</v>
+        <v>-0.07935680023753658</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.09952483040965929</v>
+        <v>0.02053659108539307</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.007301460912009572</v>
+        <v>0.1255450337702179</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.2845923429830452</v>
+        <v>-0.1733471833284988</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.1432599989977699</v>
+        <v>-0.1641972256241258</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.2964874672479511</v>
+        <v>-0.4371385134389551</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.6096960527905428</v>
+        <v>-0.5709866821930419</v>
       </c>
     </row>
     <row r="132">
@@ -4913,25 +4913,25 @@
         <v>60</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.7588093025232698</v>
+        <v>-0.8095714157937043</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.9706088896150157</v>
+        <v>-1.006170333935117</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.9090018657663232</v>
+        <v>-0.9287492268317221</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.9027225072205084</v>
+        <v>-0.9424673718207744</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.4253761754271486</v>
+        <v>-0.464107442240534</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.8947909293157864</v>
+        <v>-1.113894861874687</v>
       </c>
       <c r="J132" t="n">
-        <v>-1.005230601058466</v>
+        <v>-1.069360980659897</v>
       </c>
     </row>
     <row r="133">
@@ -4947,25 +4947,25 @@
         <v>70</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.352723197553642</v>
+        <v>-1.664160462362025</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.461624424800301</v>
+        <v>-1.584907879341785</v>
       </c>
       <c r="F133" t="n">
-        <v>-1.479001668360228</v>
+        <v>-1.595209524713131</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.459766849656324</v>
+        <v>-1.635580367173969</v>
       </c>
       <c r="H133" t="n">
-        <v>-1.798714575033318</v>
+        <v>-1.924067030969123</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.073916557620279</v>
+        <v>-1.316508441451233</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.9837265358459694</v>
+        <v>-1.042265816757289</v>
       </c>
     </row>
     <row r="134">
@@ -4981,25 +4981,25 @@
         <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7046294745604899</v>
+        <v>0.9315170143808482</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3441173473592349</v>
+        <v>0.3792759231267395</v>
       </c>
       <c r="F134" t="n">
-        <v>0.200855760712137</v>
+        <v>0.2163213460943155</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5910103973827946</v>
+        <v>0.68613327182715</v>
       </c>
       <c r="H134" t="n">
-        <v>1.361301326180292</v>
+        <v>1.368658384329115</v>
       </c>
       <c r="I134" t="n">
-        <v>1.218473872887669</v>
+        <v>1.308318378572121</v>
       </c>
       <c r="J134" t="n">
-        <v>0.7129588041340007</v>
+        <v>0.8265161081464545</v>
       </c>
     </row>
     <row r="135">
@@ -5015,25 +5015,25 @@
         <v>30</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4044548066344372</v>
+        <v>0.5249998044527</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9120584368498094</v>
+        <v>1.009305265824004</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9203522241889198</v>
+        <v>1.008091820302686</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9387538341887902</v>
+        <v>1.093367503499135</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7131422521030029</v>
+        <v>0.7201494881424402</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9610460340420788</v>
+        <v>1.034263590229765</v>
       </c>
       <c r="J135" t="n">
-        <v>1.023448885924229</v>
+        <v>1.194721384053804</v>
       </c>
     </row>
     <row r="136">
@@ -5049,25 +5049,25 @@
         <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>0.344338842203579</v>
+        <v>0.4435866249148702</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6928168696941964</v>
+        <v>0.7660958502649601</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8357959990618509</v>
+        <v>0.9150418529093578</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6666813708957602</v>
+        <v>0.7747497847409958</v>
       </c>
       <c r="H136" t="n">
-        <v>0.08815045002874554</v>
+        <v>0.0948203677164164</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3615493954326645</v>
+        <v>0.3960461964046765</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3290644302155008</v>
+        <v>0.3712618434919084</v>
       </c>
     </row>
     <row r="137">
@@ -5083,25 +5083,25 @@
         <v>50</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.2755242164924659</v>
+        <v>-0.3958746224303585</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.1016290147542236</v>
+        <v>-0.1152001637926583</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.04464288407966647</v>
+        <v>-0.05383783921291139</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.132887903805064</v>
+        <v>-0.1616071519766167</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.2872467800883143</v>
+        <v>-0.280779470458062</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.3838130753847373</v>
+        <v>-0.3974583254614454</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.5426244426707193</v>
+        <v>-0.6624602003680381</v>
       </c>
     </row>
     <row r="138">
@@ -5117,25 +5117,25 @@
         <v>60</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.696925611608496</v>
+        <v>-0.966565415847339</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.9302204517766317</v>
+        <v>-1.0343745783434</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.8688568091247915</v>
+        <v>-0.9608447300163141</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.7764676694979912</v>
+        <v>-0.9152884113811273</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.5532770016174743</v>
+        <v>-0.5469532728718808</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.9591478890271842</v>
+        <v>-1.009953311574215</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.9760838892624186</v>
+        <v>-1.176492900564796</v>
       </c>
     </row>
     <row r="139">
@@ -5151,25 +5151,25 @@
         <v>70</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.170032403470994</v>
+        <v>-1.607279218763509</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.459421907302197</v>
+        <v>-1.621429206629351</v>
       </c>
       <c r="F139" t="n">
-        <v>-1.449327977153984</v>
+        <v>-1.599624703657686</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.342357704571011</v>
+        <v>-1.577989038488465</v>
       </c>
       <c r="H139" t="n">
-        <v>-1.7947805099762</v>
+        <v>-1.789126841087011</v>
       </c>
       <c r="I139" t="n">
-        <v>-1.219782389828267</v>
+        <v>-1.287421876248762</v>
       </c>
       <c r="J139" t="n">
-        <v>-1.395347306708705</v>
+        <v>-1.673690754385345</v>
       </c>
     </row>
     <row r="140">
@@ -5185,25 +5185,25 @@
         <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1157450387145742</v>
+        <v>0.8056358489458358</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1800671676058712</v>
+        <v>0.5232379157353272</v>
       </c>
       <c r="F140" t="n">
-        <v>0.03143416456163976</v>
+        <v>0.3305844410335937</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2773191196894332</v>
+        <v>0.7604729195541247</v>
       </c>
       <c r="H140" t="n">
-        <v>1.206474010265688</v>
+        <v>1.335180373601593</v>
       </c>
       <c r="I140" t="n">
-        <v>1.346143762836582</v>
+        <v>1.394419639614096</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5546453136091607</v>
+        <v>1.187704894755047</v>
       </c>
     </row>
     <row r="141">
@@ -5219,25 +5219,25 @@
         <v>30</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.09393071511129336</v>
+        <v>0.4838175219909878</v>
       </c>
       <c r="E141" t="n">
-        <v>0.671718421185997</v>
+        <v>1.141357209166813</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6257816177302677</v>
+        <v>1.071841269790362</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5893393969745669</v>
+        <v>1.174592548268031</v>
       </c>
       <c r="H141" t="n">
-        <v>0.54048050792946</v>
+        <v>0.5799803636245091</v>
       </c>
       <c r="I141" t="n">
-        <v>1.0715640112058</v>
+        <v>1.063129847773589</v>
       </c>
       <c r="J141" t="n">
-        <v>0.7742637223742939</v>
+        <v>1.482872490784013</v>
       </c>
     </row>
     <row r="142">
@@ -5253,25 +5253,25 @@
         <v>40</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1650449286961748</v>
+        <v>0.3746687204676483</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3472070403569876</v>
+        <v>0.7333713778120419</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4348809809563179</v>
+        <v>0.8337542722465909</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2258599695517629</v>
+        <v>0.692175293725559</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.1638919846306591</v>
+        <v>-0.2187393108813149</v>
       </c>
       <c r="I142" t="n">
-        <v>0.4522308125926407</v>
+        <v>0.315883318377768</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07318705633623317</v>
+        <v>0.5406240002771929</v>
       </c>
     </row>
     <row r="143">
@@ -5287,25 +5287,25 @@
         <v>50</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.6233057120525516</v>
+        <v>-0.3286873706292948</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.3509786695412535</v>
+        <v>-0.1444094771002463</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.3207444344673451</v>
+        <v>-0.1086448180142455</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.4253557080595369</v>
+        <v>-0.1721313371496632</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.3965263650082781</v>
+        <v>-0.4825339061227196</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.1644177388019663</v>
+        <v>-0.4281240930098348</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.660987573341256</v>
+        <v>-0.4461082218796087</v>
       </c>
     </row>
     <row r="144">
@@ -5321,25 +5321,25 @@
         <v>60</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.9410985598261473</v>
+        <v>-0.8164479281692477</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.00714455467006</v>
+        <v>-0.969361697472371</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.9945565966046204</v>
+        <v>-0.9490082515930702</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.9489947777841395</v>
+        <v>-0.867115711310335</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.4717981431011493</v>
+        <v>-0.5678879634330727</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.6714431954390363</v>
+        <v>-1.039867519061874</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.9436266691651595</v>
+        <v>-0.8259757517794377</v>
       </c>
     </row>
     <row r="145">
@@ -5355,25 +5355,25 @@
         <v>70</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.425624430680928</v>
+        <v>-1.560116675173363</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.471808981824485</v>
+        <v>-1.553552310847122</v>
       </c>
       <c r="F145" t="n">
-        <v>-1.461531118000482</v>
+        <v>-1.531408413307732</v>
       </c>
       <c r="G145" t="n">
-        <v>-1.42767450583729</v>
+        <v>-1.502429137024315</v>
       </c>
       <c r="H145" t="n">
-        <v>-1.450593529312282</v>
+        <v>-1.677788109364214</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.8645886481070776</v>
+        <v>-1.272904064653105</v>
       </c>
       <c r="J145" t="n">
-        <v>-1.498745515983226</v>
+        <v>-1.572056631096299</v>
       </c>
     </row>
     <row r="146">
@@ -5389,25 +5389,25 @@
         <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6469721692706311</v>
+        <v>1.213222557737295</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3630121898104349</v>
+        <v>0.5657078139080667</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1501291832009836</v>
+        <v>0.3096175079951931</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5128240819854862</v>
+        <v>0.8188533377951108</v>
       </c>
       <c r="H146" t="n">
-        <v>1.309896209433941</v>
+        <v>1.380614556401885</v>
       </c>
       <c r="I146" t="n">
-        <v>1.200277930628595</v>
+        <v>1.255891110075139</v>
       </c>
       <c r="J146" t="n">
-        <v>0.7658094673039944</v>
+        <v>1.162152942692657</v>
       </c>
     </row>
     <row r="147">
@@ -5423,25 +5423,25 @@
         <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7117136444738645</v>
+        <v>1.306379757847133</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9662969723657285</v>
+        <v>1.276771984424578</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9772947154946773</v>
+        <v>1.276763434258684</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8453207452254069</v>
+        <v>1.232568621564855</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8175261116185523</v>
+        <v>0.8571889784708002</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9878179326937494</v>
+        <v>1.015572172434181</v>
       </c>
       <c r="J147" t="n">
-        <v>1.170681072855873</v>
+        <v>1.672291951458559</v>
       </c>
     </row>
     <row r="148">
@@ -5457,25 +5457,25 @@
         <v>40</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6123712746894765</v>
+        <v>1.16343496098641</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6182396997789787</v>
+        <v>0.8665328022329523</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8530535991695072</v>
+        <v>1.131497118343513</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4886402559715282</v>
+        <v>0.7887621532866417</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2473489493401489</v>
+        <v>0.251048776186259</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3788504552855548</v>
+        <v>0.3267534834990964</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3701289718959108</v>
+        <v>0.6635947505459465</v>
       </c>
     </row>
     <row r="149">
@@ -5491,25 +5491,25 @@
         <v>50</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1624102203964775</v>
+        <v>0.0485935930294893</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.2419943300642173</v>
+        <v>-0.1473856896104335</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.1674588327463353</v>
+        <v>-0.06171560957539719</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.3930010731711335</v>
+        <v>-0.3082368033801736</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.137140342242252</v>
+        <v>-0.1576915810120562</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.4038733559900281</v>
+        <v>-0.558605438747126</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.5907763198647992</v>
+        <v>-0.547147781987387</v>
       </c>
     </row>
     <row r="150">
@@ -5525,25 +5525,25 @@
         <v>60</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.6995603199081932</v>
+        <v>-0.7243174219288665</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.053989598169279</v>
+        <v>-1.104447360108543</v>
       </c>
       <c r="F150" t="n">
-        <v>-1.027276314003149</v>
+        <v>-1.067039141398295</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.9870093002986466</v>
+        <v>-1.047342813807396</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.4463578557317816</v>
+        <v>-0.4864125094819154</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.9299150637585074</v>
+        <v>-1.153624668694234</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.9347345726743775</v>
+        <v>-0.9805358480779992</v>
       </c>
     </row>
     <row r="151">
@@ -5559,25 +5559,25 @@
         <v>70</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.29783926942136</v>
+        <v>-1.585187392011326</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.484587574696105</v>
+        <v>-1.61197349346841</v>
       </c>
       <c r="F151" t="n">
-        <v>-1.51078074972271</v>
+        <v>-1.63236654816271</v>
       </c>
       <c r="G151" t="n">
-        <v>-1.490677410117865</v>
+        <v>-1.67404141868714</v>
       </c>
       <c r="H151" t="n">
-        <v>-1.840153393634969</v>
+        <v>-1.968119538770851</v>
       </c>
       <c r="I151" t="n">
-        <v>-1.088532970254617</v>
+        <v>-1.333041439618178</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.632769939681356</v>
+        <v>-0.6000598244570224</v>
       </c>
     </row>
   </sheetData>
